--- a/template/b2c/$E6.xlsx
+++ b/template/b2c/$E6.xlsx
@@ -24,22 +24,22 @@
     <t>endGroups</t>
   </si>
   <si>
-    <t>E6C1(1)</t>
-  </si>
-  <si>
-    <t>E6C2(1)</t>
-  </si>
-  <si>
-    <t>E6C1: Сайт МГТС</t>
-  </si>
-  <si>
-    <t>E6C3(1)</t>
-  </si>
-  <si>
-    <t>E6C3: Затрудняюсь ответить, не помню</t>
-  </si>
-  <si>
-    <t>E6C2: Сайт МТС</t>
+    <t>C4C1: Сайт МГТС</t>
+  </si>
+  <si>
+    <t>C4C2: Сайт МТС</t>
+  </si>
+  <si>
+    <t>C4C3: Затрудняюсь ответить, не помню</t>
+  </si>
+  <si>
+    <t>C4C1(1)</t>
+  </si>
+  <si>
+    <t>C4C2(1)</t>
+  </si>
+  <si>
+    <t>C4C3(1)</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C22" sqref="C21:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,24 +394,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
